--- a/results/merged-dataframe.xlsx
+++ b/results/merged-dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,100 +436,95 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>CHROM_x</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CHROM_x</t>
+          <t>POS_x</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>POS_x</t>
+          <t>End_x</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>End_x</t>
+          <t>REF_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>REF_x</t>
+          <t>ALT_x</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ALT_x</t>
+          <t>Func.ensGene</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Func.ensGene</t>
+          <t>ExonicFunc.ensGene</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ExonicFunc.ensGene</t>
+          <t>AAChange.ensGene</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AAChange.ensGene</t>
+          <t>avsnp150</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>avsnp150</t>
+          <t xml:space="preserve">clinvar: Clinvar </t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Clinvar </t>
+          <t>InterVar_automated</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>InterVar_automated</t>
+          <t>Clin_Sig_inhouse</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Clin_Sig_inhouse</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>Var_type</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Var_type</t>
+          <t>chrom</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>chrom</t>
+          <t>strand</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>strand</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>End</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>End</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Gene name</t>
         </is>
@@ -539,58 +534,60 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>707</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C2" t="n">
+        <v>343554</v>
       </c>
       <c r="D2" t="n">
         <v>343554</v>
       </c>
-      <c r="E2" t="n">
-        <v>343554</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000103126:ENST00000262320:exon8:c.2120T&gt;G:p.Leu707Arg,ENSG00000103126:ENST00000354866:exon8:c.2120T&gt;G:p.Leu707Arg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ENSG00000103126:ENST00000262320:exon8:c.2120T&gt;G:p.Leu707Arg,ENSG00000103126:ENST00000354866:exon8:c.2120T&gt;G:p.Leu707Arg</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -600,31 +597,26 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5_gl339449_alt</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>chr5_gl339449_alt</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>343138</v>
+      </c>
       <c r="S2" t="n">
-        <v>343138</v>
-      </c>
-      <c r="T2" t="n">
         <v>378168</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>GTF2H2C</t>
         </is>
@@ -634,58 +626,60 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>756</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>chr6</t>
         </is>
+      </c>
+      <c r="C3" t="n">
+        <v>405027</v>
       </c>
       <c r="D3" t="n">
         <v>405027</v>
       </c>
-      <c r="E3" t="n">
-        <v>405027</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000137265:ENST00000380956:exon8:c.1109C&gt;T:p.Ala370Val,ENSG00000137265:ENST00000493114:exon8:c.1109C&gt;T:p.Ala370Val</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ENSG00000137265:ENST00000380956:exon8:c.1109C&gt;T:p.Ala370Val,ENSG00000137265:ENST00000493114:exon8:c.1109C&gt;T:p.Ala370Val</t>
+          <t>rs568315642</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>rs568315642</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -695,31 +689,26 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12_gl877876_alt</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>chr12_gl877876_alt</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>401847</v>
+      </c>
       <c r="S3" t="n">
-        <v>401847</v>
-      </c>
-      <c r="T3" t="n">
         <v>406670</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>SMIM10L1</t>
         </is>
@@ -729,92 +718,89 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>757</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>chr5</t>
         </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1294225</v>
       </c>
       <c r="D4" t="n">
         <v>1294225</v>
       </c>
-      <c r="E4" t="n">
-        <v>1294225</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000164362:ENST00000296820:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000310581:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000334602:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000460137:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000508104:exon2:c.776C&gt;T:p.Pro259Leu</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ENSG00000164362:ENST00000296820:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000310581:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000334602:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000460137:exon2:c.776C&gt;T:p.Pro259Leu,ENSG00000164362:ENST00000508104:exon2:c.776C&gt;T:p.Pro259Leu</t>
+          <t>rs775613951</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>rs775613951</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG/Oncogenic</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>TSG/Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX_jh806590_fix</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>chrX_jh806590_fix</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R4" t="n">
+        <v>1293000</v>
+      </c>
       <c r="S4" t="n">
-        <v>1293000</v>
-      </c>
-      <c r="T4" t="n">
         <v>1309283</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>CCDC120</t>
         </is>
@@ -824,58 +810,60 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>750</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2160526</v>
       </c>
       <c r="D5" t="n">
         <v>2160526</v>
       </c>
-      <c r="E5" t="n">
-        <v>2160526</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000008710:ENST00000262304:exon15:c.4642G&gt;A:p.Val1548Met,ENSG00000008710:ENST00000423118:exon15:c.4642G&gt;A:p.Val1548Met</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ENSG00000008710:ENST00000262304:exon15:c.4642G&gt;A:p.Val1548Met,ENSG00000008710:ENST00000423118:exon15:c.4642G&gt;A:p.Val1548Met</t>
+          <t>rs774293064</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>rs774293064</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -885,31 +873,26 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>2159757</v>
+      </c>
       <c r="S5" t="n">
-        <v>2159757</v>
-      </c>
-      <c r="T5" t="n">
         <v>2241652</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>SKI</t>
         </is>
@@ -919,58 +902,60 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>751</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>chr20</t>
         </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2635436</v>
       </c>
       <c r="D6" t="n">
         <v>2635436</v>
       </c>
-      <c r="E6" t="n">
-        <v>2635436</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000101361:ENST00000329276:exon5:c.412G&gt;T:p.Asp138Tyr,ENSG00000101361:ENST00000445139:exon5:c.412G&gt;T:p.Asp138Tyr</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ENSG00000101361:ENST00000329276:exon5:c.412G&gt;T:p.Asp138Tyr,ENSG00000101361:ENST00000445139:exon5:c.412G&gt;T:p.Asp138Tyr</t>
+          <t>rs11553608</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>rs11553608</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -980,31 +965,26 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr20</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>chr20</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>2634857</v>
+      </c>
       <c r="S6" t="n">
-        <v>2634857</v>
-      </c>
-      <c r="T6" t="n">
         <v>2634932</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>SNORD110</t>
         </is>
@@ -1014,92 +994,89 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>728</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3192604</v>
       </c>
       <c r="D7" t="n">
         <v>3192604</v>
       </c>
-      <c r="E7" t="n">
-        <v>3192604</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000113851:ENST00000231948:exon11:c.1274C&gt;T:p.Thr425Met,ENSG00000113851:ENST00000432408:exon11:c.1271C&gt;T:p.Thr424Met</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ENSG00000113851:ENST00000231948:exon11:c.1274C&gt;T:p.Thr425Met,ENSG00000113851:ENST00000432408:exon11:c.1271C&gt;T:p.Thr424Met</t>
+          <t>rs566932471</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>rs566932471</t>
+          <t xml:space="preserve">clinvar: Uncertain_significance </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Uncertain_significance </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1_jh636052_fix</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>chr1_jh636052_fix</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>3192219</v>
+      </c>
       <c r="S7" t="n">
-        <v>3192219</v>
-      </c>
-      <c r="T7" t="n">
         <v>3192383</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>RNU1-4</t>
         </is>
@@ -1109,58 +1086,60 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>730</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3800129</v>
       </c>
       <c r="D8" t="n">
         <v>3800129</v>
       </c>
-      <c r="E8" t="n">
-        <v>3800129</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000110713:ENST00000324932:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000355260:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000359171:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000397004:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000397007:exon4:c.329C&gt;T:p.Ala110Val</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ENSG00000110713:ENST00000324932:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000355260:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000359171:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000397004:exon4:c.329C&gt;T:p.Ala110Val,ENSG00000110713:ENST00000397007:exon4:c.329C&gt;T:p.Ala110Val</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1170,31 +1149,26 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>3799885</v>
+      </c>
       <c r="S8" t="n">
-        <v>3799885</v>
-      </c>
-      <c r="T8" t="n">
         <v>3819759</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>P2RX1</t>
         </is>
@@ -1204,58 +1178,60 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>732</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>chr19</t>
         </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5215410</v>
       </c>
       <c r="D9" t="n">
         <v>5215410</v>
       </c>
-      <c r="E9" t="n">
-        <v>5215410</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000105426:ENST00000592099:exon18:c.2867G&gt;T:p.Gly956Val,ENSG00000105426:ENST00000353284:exon19:c.2867G&gt;T:p.Gly956Val,ENSG00000105426:ENST00000588012:exon22:c.4094G&gt;T:p.Gly1365Val,ENSG00000105426:ENST00000348075:exon23:c.4094G&gt;T:p.Gly1365Val,ENSG00000105426:ENST00000262963:exon24:c.4148G&gt;T:p.Gly1383Val,ENSG00000105426:ENST00000587303:exon27:c.4208G&gt;T:p.Gly1403Val,ENSG00000105426:ENST00000357368:exon28:c.4208G&gt;T:p.Gly1403Val,ENSG00000105426:ENST00000372412:exon28:c.4211G&gt;T:p.Gly1404Val</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ENSG00000105426:ENST00000592099:exon18:c.2867G&gt;T:p.Gly956Val,ENSG00000105426:ENST00000353284:exon19:c.2867G&gt;T:p.Gly956Val,ENSG00000105426:ENST00000588012:exon22:c.4094G&gt;T:p.Gly1365Val,ENSG00000105426:ENST00000348075:exon23:c.4094G&gt;T:p.Gly1365Val,ENSG00000105426:ENST00000262963:exon24:c.4148G&gt;T:p.Gly1383Val,ENSG00000105426:ENST00000587303:exon27:c.4208G&gt;T:p.Gly1403Val,ENSG00000105426:ENST00000357368:exon28:c.4208G&gt;T:p.Gly1403Val,ENSG00000105426:ENST00000372412:exon28:c.4211G&gt;T:p.Gly1404Val</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1265,31 +1241,26 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX_jh806600_fix</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>chrX_jh806600_fix</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>5212590</v>
+      </c>
       <c r="S9" t="n">
-        <v>5212590</v>
-      </c>
-      <c r="T9" t="n">
         <v>5241666</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>MAGEA11</t>
         </is>
@@ -1299,58 +1270,60 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>713</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>chr7</t>
         </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6438341</v>
       </c>
       <c r="D10" t="n">
         <v>6438341</v>
       </c>
-      <c r="E10" t="n">
-        <v>6438341</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000136238:ENST00000356142:exon4:c.274C&gt;A:p.Pro92Thr</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ENSG00000136238:ENST00000356142:exon4:c.274C&gt;A:p.Pro92Thr</t>
+          <t>rs760053359</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>rs760053359</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1360,31 +1333,26 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>6437936</v>
+      </c>
       <c r="S10" t="n">
-        <v>6437936</v>
-      </c>
-      <c r="T10" t="n">
         <v>6451242</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>TNFRSF1A</t>
         </is>
@@ -1394,92 +1362,89 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>760</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>chr19</t>
         </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7117197</v>
       </c>
       <c r="D11" t="n">
         <v>7117197</v>
       </c>
-      <c r="E11" t="n">
-        <v>7117197</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000171105:ENST00000341500:exon21:c.3983C&gt;T:p.Ala1328Val,ENSG00000171105:ENST00000302850:exon22:c.4019C&gt;T:p.Ala1340Val</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ENSG00000171105:ENST00000341500:exon21:c.3983C&gt;T:p.Ala1328Val,ENSG00000171105:ENST00000302850:exon22:c.4019C&gt;T:p.Ala1340Val</t>
+          <t>rs200400127</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>rs200400127</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Oncogenic</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr7</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>chr7</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R11" t="n">
+        <v>7115400</v>
+      </c>
       <c r="S11" t="n">
-        <v>7115400</v>
-      </c>
-      <c r="T11" t="n">
         <v>7136417</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>LOC100131257</t>
         </is>
@@ -1489,58 +1454,60 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>754</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>chr20</t>
         </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8698445</v>
       </c>
       <c r="D12" t="n">
         <v>8698445</v>
       </c>
-      <c r="E12" t="n">
-        <v>8698445</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000182621:ENST00000338037:exon14:c.1463A&gt;G:p.Asn488Ser,ENSG00000182621:ENST00000378637:exon14:c.1463A&gt;G:p.Asn488Ser,ENSG00000182621:ENST00000378641:exon14:c.1463A&gt;G:p.Asn488Ser</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ENSG00000182621:ENST00000338037:exon14:c.1463A&gt;G:p.Asn488Ser,ENSG00000182621:ENST00000378637:exon14:c.1463A&gt;G:p.Asn488Ser,ENSG00000182621:ENST00000378641:exon14:c.1463A&gt;G:p.Asn488Ser</t>
+          <t>rs770501311</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>rs770501311</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1550,31 +1517,26 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr18</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>chr18</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>8695853</v>
+      </c>
       <c r="S12" t="n">
-        <v>8695853</v>
-      </c>
-      <c r="T12" t="n">
         <v>8707619</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>GACAT2</t>
         </is>
@@ -1584,92 +1546,89 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>733</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10183635</v>
       </c>
       <c r="D13" t="n">
         <v>10183635</v>
       </c>
-      <c r="E13" t="n">
-        <v>10183635</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000134086:ENST00000256474:exon1:c.104C&gt;T:p.Ala35Val,ENSG00000134086:ENST00000345392:exon1:c.104C&gt;T:p.Ala35Val</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ENSG00000134086:ENST00000256474:exon1:c.104C&gt;T:p.Ala35Val,ENSG00000134086:ENST00000345392:exon1:c.104C&gt;T:p.Ala35Val</t>
+          <t>rs587780536</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>rs587780536</t>
+          <t xml:space="preserve">clinvar: Uncertain_significance </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Uncertain_significance </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr3</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>chr3</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>10183461</v>
+      </c>
       <c r="S13" t="n">
-        <v>10183461</v>
-      </c>
-      <c r="T13" t="n">
         <v>10195351</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>VHL</t>
         </is>
@@ -1679,58 +1638,60 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>702</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>chr1</t>
         </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10434927</v>
       </c>
       <c r="D14" t="n">
         <v>10434927</v>
       </c>
-      <c r="E14" t="n">
-        <v>10434927</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000054523:ENST00000263934:exon45:c.4974G&gt;T:p.Lys1658Asn,ENSG00000054523:ENST00000377081:exon46:c.5112G&gt;T:p.Lys1704Asn,ENSG00000054523:ENST00000377086:exon47:c.5112G&gt;T:p.Lys1704Asn</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ENSG00000054523:ENST00000263934:exon45:c.4974G&gt;T:p.Lys1658Asn,ENSG00000054523:ENST00000377081:exon46:c.5112G&gt;T:p.Lys1704Asn,ENSG00000054523:ENST00000377086:exon47:c.5112G&gt;T:p.Lys1704Asn</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1740,31 +1701,26 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>chr6</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>10434561</v>
+      </c>
       <c r="S14" t="n">
-        <v>10434561</v>
-      </c>
-      <c r="T14" t="n">
         <v>10457014</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>MIR5689HG</t>
         </is>
@@ -1774,92 +1730,89 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>689</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14041512</v>
       </c>
       <c r="D15" t="n">
         <v>14041512</v>
       </c>
-      <c r="E15" t="n">
-        <v>14041512</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000175595:ENST00000311895:exon11:c.2059G&gt;T:p.Asp687Tyr</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ENSG00000175595:ENST00000311895:exon11:c.2059G&gt;T:p.Asp687Tyr</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14030248</v>
+      </c>
       <c r="S15" t="n">
-        <v>14030248</v>
-      </c>
-      <c r="T15" t="n">
         <v>14151574</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>PRDM2</t>
         </is>
@@ -1869,58 +1822,60 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>749</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>chr12</t>
         </is>
+      </c>
+      <c r="C16" t="n">
+        <v>14578083</v>
       </c>
       <c r="D16" t="n">
         <v>14578083</v>
       </c>
-      <c r="E16" t="n">
-        <v>14578083</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000171681:ENST00000540793:exon1:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000261168:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000396279:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000536444:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000543189:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000544627:exon2:c.1258G&gt;A:p.Glu420Lys</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ENSG00000171681:ENST00000540793:exon1:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000261168:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000396279:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000536444:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000543189:exon2:c.1234G&gt;A:p.Glu412Lys,ENSG00000171681:ENST00000544627:exon2:c.1258G&gt;A:p.Glu420Lys</t>
+          <t>rs567077220</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>rs567077220</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1930,31 +1885,26 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>14570901</v>
+      </c>
       <c r="S16" t="n">
-        <v>14570901</v>
-      </c>
-      <c r="T16" t="n">
         <v>14655864</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>ATF7IP</t>
         </is>
@@ -1964,58 +1914,60 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>717</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>chr12</t>
         </is>
+      </c>
+      <c r="C17" t="n">
+        <v>14589081</v>
       </c>
       <c r="D17" t="n">
         <v>14589081</v>
       </c>
-      <c r="E17" t="n">
-        <v>14589081</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000171681:ENST00000538511:exon3:c.4G&gt;T:p.Asp2Tyr,ENSG00000171681:ENST00000540793:exon3:c.1687G&gt;T:p.Asp563Tyr,ENSG00000171681:ENST00000261168:exon4:c.1687G&gt;T:p.Asp563Tyr,ENSG00000171681:ENST00000536444:exon4:c.1684G&gt;T:p.Asp562Tyr,ENSG00000171681:ENST00000543189:exon4:c.1684G&gt;T:p.Asp562Tyr,ENSG00000171681:ENST00000544627:exon4:c.1711G&gt;T:p.Asp571Tyr</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ENSG00000171681:ENST00000538511:exon3:c.4G&gt;T:p.Asp2Tyr,ENSG00000171681:ENST00000540793:exon3:c.1687G&gt;T:p.Asp563Tyr,ENSG00000171681:ENST00000261168:exon4:c.1687G&gt;T:p.Asp563Tyr,ENSG00000171681:ENST00000536444:exon4:c.1684G&gt;T:p.Asp562Tyr,ENSG00000171681:ENST00000543189:exon4:c.1684G&gt;T:p.Asp562Tyr,ENSG00000171681:ENST00000544627:exon4:c.1711G&gt;T:p.Asp571Tyr</t>
+          <t>rs1052866666</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>rs1052866666</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2025,31 +1977,26 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>chr19</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>14588573</v>
+      </c>
       <c r="S17" t="n">
-        <v>14588573</v>
-      </c>
-      <c r="T17" t="n">
         <v>14606939</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>GIPC1</t>
         </is>
@@ -2059,58 +2006,60 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>735</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>chr19</t>
         </is>
+      </c>
+      <c r="C18" t="n">
+        <v>15383723</v>
       </c>
       <c r="D18" t="n">
         <v>15383723</v>
       </c>
-      <c r="E18" t="n">
-        <v>15383723</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000141867:ENST00000263377:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000360016:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000371835:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000594841:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000597315:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000601941:exon3:c.188T&gt;A:p.Leu63Gln</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>ENSG00000141867:ENST00000263377:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000360016:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000371835:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000594841:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000597315:exon2:c.188T&gt;A:p.Leu63Gln,ENSG00000141867:ENST00000601941:exon3:c.188T&gt;A:p.Leu63Gln</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2120,31 +2069,26 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>chr4</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>15376170</v>
+      </c>
       <c r="S18" t="n">
-        <v>15376170</v>
-      </c>
-      <c r="T18" t="n">
         <v>15447791</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>C1QTNF7</t>
         </is>
@@ -2154,58 +2098,60 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>744</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C19" t="n">
+        <v>15826510</v>
       </c>
       <c r="D19" t="n">
         <v>15826510</v>
       </c>
-      <c r="E19" t="n">
-        <v>15826510</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000133392:ENST00000300036:exon27:c.3562C&gt;T:p.Arg1188Trp,ENSG00000133392:ENST00000576790:exon27:c.3562C&gt;T:p.Arg1188Trp,ENSG00000133392:ENST00000396324:exon28:c.3583C&gt;T:p.Arg1195Trp,ENSG00000133392:ENST00000452625:exon28:c.3583C&gt;T:p.Arg1195Trp</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ENSG00000133392:ENST00000300036:exon27:c.3562C&gt;T:p.Arg1188Trp,ENSG00000133392:ENST00000576790:exon27:c.3562C&gt;T:p.Arg1188Trp,ENSG00000133392:ENST00000396324:exon28:c.3583C&gt;T:p.Arg1195Trp,ENSG00000133392:ENST00000452625:exon28:c.3583C&gt;T:p.Arg1195Trp</t>
+          <t>rs146388001</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>rs146388001</t>
+          <t xml:space="preserve">clinvar: Conflicting_interpretations_of_pathogenicity </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Conflicting_interpretations_of_pathogenicity </t>
+          <t>LIKELY_BENIGN</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>LIKELY_BENIGN</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2215,31 +2161,26 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr3</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>chr3</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>15822940</v>
+      </c>
       <c r="S19" t="n">
-        <v>15822940</v>
-      </c>
-      <c r="T19" t="n">
         <v>15839486</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>ANKRD28</t>
         </is>
@@ -2249,58 +2190,60 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>704</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15835514</v>
       </c>
       <c r="D20" t="n">
         <v>15835514</v>
       </c>
-      <c r="E20" t="n">
-        <v>15835514</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000133392:ENST00000300036:exon22:c.2665A&gt;C:p.Lys889Gln,ENSG00000133392:ENST00000576790:exon22:c.2665A&gt;C:p.Lys889Gln,ENSG00000133392:ENST00000396324:exon23:c.2686A&gt;C:p.Lys896Gln,ENSG00000133392:ENST00000452625:exon23:c.2686A&gt;C:p.Lys896Gln</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ENSG00000133392:ENST00000300036:exon22:c.2665A&gt;C:p.Lys889Gln,ENSG00000133392:ENST00000576790:exon22:c.2665A&gt;C:p.Lys889Gln,ENSG00000133392:ENST00000396324:exon23:c.2686A&gt;C:p.Lys896Gln,ENSG00000133392:ENST00000452625:exon23:c.2686A&gt;C:p.Lys896Gln</t>
+          <t>rs762308378</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>rs762308378</t>
+          <t xml:space="preserve">clinvar: Uncertain_significance </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Uncertain_significance </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2310,31 +2253,26 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr2</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>chr2</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>15830905</v>
+      </c>
       <c r="S20" t="n">
-        <v>15830905</v>
-      </c>
-      <c r="T20" t="n">
         <v>15859085</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>LINC01804</t>
         </is>
@@ -2344,58 +2282,60 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>711</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>chr8</t>
         </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16035497</v>
       </c>
       <c r="D21" t="n">
         <v>16035497</v>
       </c>
-      <c r="E21" t="n">
-        <v>16035497</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000038945:ENST00000355282:exon1:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000262101:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000350896:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000381998:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000445506:exon2:c.55A&gt;G:p.Met19Val,ENSG00000038945:ENST00000519060:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000518960:exon3:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000518026:exon5:c.34A&gt;G:p.Met12Val</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ENSG00000038945:ENST00000355282:exon1:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000262101:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000350896:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000381998:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000445506:exon2:c.55A&gt;G:p.Met19Val,ENSG00000038945:ENST00000519060:exon2:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000518960:exon3:c.1A&gt;G:p.Met1Val,ENSG00000038945:ENST00000518026:exon5:c.34A&gt;G:p.Met12Val</t>
+          <t>rs774166145</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>rs774166145</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2405,31 +2345,26 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>16035320</v>
+      </c>
       <c r="S21" t="n">
-        <v>16035320</v>
-      </c>
-      <c r="T21" t="n">
         <v>16056412</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>STRAP</t>
         </is>
@@ -2439,58 +2374,60 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>729</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>chr6</t>
         </is>
+      </c>
+      <c r="C22" t="n">
+        <v>18237660</v>
       </c>
       <c r="D22" t="n">
         <v>18237660</v>
       </c>
-      <c r="E22" t="n">
-        <v>18237660</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000124795:ENST00000507591:exon2:c.178A&gt;G:p.Lys60Glu,ENSG00000124795:ENST00000244776:exon7:c.748A&gt;G:p.Lys250Glu,ENSG00000124795:ENST00000397239:exon8:c.850A&gt;G:p.Lys284Glu,ENSG00000124795:ENST00000505224:exon8:c.766A&gt;G:p.Lys256Glu</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ENSG00000124795:ENST00000507591:exon2:c.178A&gt;G:p.Lys60Glu,ENSG00000124795:ENST00000244776:exon7:c.748A&gt;G:p.Lys250Glu,ENSG00000124795:ENST00000397239:exon8:c.850A&gt;G:p.Lys284Glu,ENSG00000124795:ENST00000505224:exon8:c.766A&gt;G:p.Lys256Glu</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2500,31 +2437,26 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>18233802</v>
+      </c>
       <c r="S22" t="n">
-        <v>18233802</v>
-      </c>
-      <c r="T22" t="n">
         <v>18243127</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>RERGL</t>
         </is>
@@ -2534,58 +2466,60 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>727</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C23" t="n">
+        <v>18896429</v>
       </c>
       <c r="D23" t="n">
         <v>18896429</v>
       </c>
-      <c r="E23" t="n">
-        <v>18896429</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000157106:ENST00000565324:exon6:c.674T&gt;A:p.Leu225His,ENSG00000157106:ENST00000389467:exon8:c.1004T&gt;A:p.Leu335His,ENSG00000157106:ENST00000446231:exon8:c.1004T&gt;A:p.Leu335His,ENSG00000157106:ENST00000565224:exon8:c.926T&gt;A:p.Leu309His,ENSG00000157106:ENST00000532700:exon9:c.926T&gt;A:p.Leu309His</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>ENSG00000157106:ENST00000565324:exon6:c.674T&gt;A:p.Leu225His,ENSG00000157106:ENST00000389467:exon8:c.1004T&gt;A:p.Leu335His,ENSG00000157106:ENST00000446231:exon8:c.1004T&gt;A:p.Leu335His,ENSG00000157106:ENST00000565224:exon8:c.926T&gt;A:p.Leu309His,ENSG00000157106:ENST00000532700:exon9:c.926T&gt;A:p.Leu309His</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2595,31 +2529,26 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr22</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>chr22</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>18893832</v>
+      </c>
       <c r="S23" t="n">
-        <v>18893832</v>
-      </c>
-      <c r="T23" t="n">
         <v>18899601</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>DGCR6</t>
         </is>
@@ -2629,58 +2558,60 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>764</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>chr8</t>
         </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23540246</v>
       </c>
       <c r="D24" t="n">
         <v>23540246</v>
       </c>
-      <c r="E24" t="n">
-        <v>23540246</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000167034:ENST00000380871:exon1:c.157G&gt;A:p.Asp53Asn</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>ENSG00000167034:ENST00000380871:exon1:c.157G&gt;A:p.Asp53Asn</t>
+          <t>rs566595925</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>rs566595925</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2690,31 +2621,26 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr16</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>chr16</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>23536340</v>
+      </c>
       <c r="S24" t="n">
-        <v>23536340</v>
-      </c>
-      <c r="T24" t="n">
         <v>23568696</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>EARS2</t>
         </is>
@@ -2724,58 +2650,60 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>705</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25641017</v>
       </c>
       <c r="D25" t="n">
         <v>25641017</v>
       </c>
-      <c r="E25" t="n">
-        <v>25641017</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000077097:ENST00000540199:exon11:c.1175A&gt;T:p.Lys392Ile,ENSG00000077097:ENST00000542520:exon12:c.1175A&gt;T:p.Lys392Ile,ENSG00000077097:ENST00000264331:exon35:c.4619A&gt;T:p.Lys1540Ile,ENSG00000077097:ENST00000435706:exon35:c.4604A&gt;T:p.Lys1535Ile</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ENSG00000077097:ENST00000540199:exon11:c.1175A&gt;T:p.Lys392Ile,ENSG00000077097:ENST00000542520:exon12:c.1175A&gt;T:p.Lys392Ile,ENSG00000077097:ENST00000264331:exon35:c.4619A&gt;T:p.Lys1540Ile,ENSG00000077097:ENST00000435706:exon35:c.4604A&gt;T:p.Lys1535Ile</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2785,31 +2713,26 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr3</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>chr3</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R25" t="n">
+        <v>25639474</v>
+      </c>
       <c r="S25" t="n">
-        <v>25639474</v>
-      </c>
-      <c r="T25" t="n">
         <v>25706398</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>TOP2B</t>
         </is>
@@ -2819,92 +2742,89 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>767</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C26" t="n">
+        <v>29548980</v>
       </c>
       <c r="D26" t="n">
         <v>29548980</v>
       </c>
-      <c r="E26" t="n">
-        <v>29548980</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000196712:ENST00000431387:exon15:c.1754T&gt;A:p.Phe585Tyr</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>ENSG00000196712:ENST00000431387:exon15:c.1754T&gt;A:p.Phe585Tyr</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>LIKELY_BENIGN</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>LIKELY_BENIGN</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R26" t="n">
+        <v>29542226</v>
+      </c>
       <c r="S26" t="n">
-        <v>29542226</v>
-      </c>
-      <c r="T26" t="n">
         <v>29640257</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>OVCH1-AS1</t>
         </is>
@@ -2914,58 +2834,60 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>695</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>chr12</t>
         </is>
+      </c>
+      <c r="C27" t="n">
+        <v>30814190</v>
       </c>
       <c r="D27" t="n">
         <v>30814190</v>
       </c>
-      <c r="E27" t="n">
-        <v>30814190</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000133704:ENST00000544829:exon12:c.1151T&gt;C:p.Phe384Ser,ENSG00000133704:ENST00000256079:exon16:c.1766T&gt;C:p.Phe589Ser</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ENSG00000133704:ENST00000544829:exon12:c.1151T&gt;C:p.Phe384Ser,ENSG00000133704:ENST00000256079:exon16:c.1766T&gt;C:p.Phe589Ser</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2975,31 +2897,26 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>30814010</v>
+      </c>
       <c r="S27" t="n">
-        <v>30814010</v>
-      </c>
-      <c r="T27" t="n">
         <v>30818271</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>CDK5R1</t>
         </is>
@@ -3009,58 +2926,60 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>731</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>chrX</t>
         </is>
+      </c>
+      <c r="C28" t="n">
+        <v>31196049</v>
       </c>
       <c r="D28" t="n">
         <v>31196049</v>
       </c>
-      <c r="E28" t="n">
-        <v>31196049</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000198947:ENST00000378705:exon6:c.632C&gt;T:p.Ala211Val,ENSG00000198947:ENST00000378702:exon10:c.1058C&gt;T:p.Ala353Val,ENSG00000198947:ENST00000378723:exon10:c.1058C&gt;T:p.Ala353Val,ENSG00000198947:ENST00000378707:exon28:c.2882C&gt;T:p.Ala961Val,ENSG00000198947:ENST00000474231:exon28:c.2882C&gt;T:p.Ala961Val,ENSG00000198947:ENST00000357033:exon71:c.10262C&gt;T:p.Ala3421Val,ENSG00000198947:ENST00000378677:exon71:c.10250C&gt;T:p.Ala3417Val</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>ENSG00000198947:ENST00000378705:exon6:c.632C&gt;T:p.Ala211Val,ENSG00000198947:ENST00000378702:exon10:c.1058C&gt;T:p.Ala353Val,ENSG00000198947:ENST00000378723:exon10:c.1058C&gt;T:p.Ala353Val,ENSG00000198947:ENST00000378707:exon28:c.2882C&gt;T:p.Ala961Val,ENSG00000198947:ENST00000474231:exon28:c.2882C&gt;T:p.Ala961Val,ENSG00000198947:ENST00000357033:exon71:c.10262C&gt;T:p.Ala3421Val,ENSG00000198947:ENST00000378677:exon71:c.10250C&gt;T:p.Ala3417Val</t>
+          <t>rs104894791</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>rs104894791</t>
+          <t xml:space="preserve">clinvar: Uncertain_significance </t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Uncertain_significance </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3070,31 +2989,26 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>chr5</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>31193792</v>
+      </c>
       <c r="S28" t="n">
-        <v>31193792</v>
-      </c>
-      <c r="T28" t="n">
         <v>31319487</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>CDH6</t>
         </is>
@@ -3104,92 +3018,89 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>700</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>chr20</t>
         </is>
+      </c>
+      <c r="C29" t="n">
+        <v>31394028</v>
       </c>
       <c r="D29" t="n">
         <v>31394028</v>
       </c>
-      <c r="E29" t="n">
-        <v>31394028</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000088305:ENST00000201963:exon21:c.2291A&gt;T:p.Gln764Leu,ENSG00000088305:ENST00000353855:exon21:c.2255A&gt;T:p.Gln752Leu,ENSG00000088305:ENST00000328111:exon22:c.2315A&gt;T:p.Gln772Leu</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>ENSG00000088305:ENST00000201963:exon21:c.2291A&gt;T:p.Gln764Leu,ENSG00000088305:ENST00000353855:exon21:c.2255A&gt;T:p.Gln752Leu,ENSG00000088305:ENST00000328111:exon22:c.2315A&gt;T:p.Gln772Leu</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr11</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>chr11</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>31391406</v>
+      </c>
       <c r="S29" t="n">
-        <v>31391406</v>
-      </c>
-      <c r="T29" t="n">
         <v>31454382</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>DNAJC24</t>
         </is>
@@ -3199,58 +3110,60 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>738</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>chr10</t>
         </is>
+      </c>
+      <c r="C30" t="n">
+        <v>32308786</v>
       </c>
       <c r="D30" t="n">
         <v>32308786</v>
       </c>
-      <c r="E30" t="n">
-        <v>32308786</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000170759:ENST00000302418:exon20:c.2306C&gt;T:p.Thr769Met</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>ENSG00000170759:ENST00000302418:exon20:c.2306C&gt;T:p.Thr769Met</t>
+          <t>rs200339436</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>rs200339436</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3260,31 +3173,26 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr16</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>chr16</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>32300867</v>
+      </c>
       <c r="S30" t="n">
-        <v>32300867</v>
-      </c>
-      <c r="T30" t="n">
         <v>32301302</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>LOC390705</t>
         </is>
@@ -3294,58 +3202,60 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>693</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33886286</v>
       </c>
       <c r="D31" t="n">
         <v>33886286</v>
       </c>
-      <c r="E31" t="n">
-        <v>33886286</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000135363:ENST00000395833:exon2:c.119G&gt;A:p.Arg40His,ENSG00000135363:ENST00000257818:exon5:c.326G&gt;A:p.Arg109His</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ENSG00000135363:ENST00000395833:exon2:c.119G&gt;A:p.Arg40His,ENSG00000135363:ENST00000257818:exon5:c.326G&gt;A:p.Arg109His</t>
+          <t>rs752833795</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>rs752833795</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3355,31 +3265,26 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>33880223</v>
+      </c>
       <c r="S31" t="n">
-        <v>33880223</v>
-      </c>
-      <c r="T31" t="n">
         <v>33882568</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>LOC107985033</t>
         </is>
@@ -3389,58 +3294,60 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>739</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C32" t="n">
+        <v>34251695</v>
       </c>
       <c r="D32" t="n">
         <v>34251695</v>
       </c>
-      <c r="E32" t="n">
-        <v>34251695</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000187456:ENST00000394529:exon3:c.412T&gt;A:p.Cys138Ser,ENSG00000187456:ENST00000419453:exon3:c.412T&gt;A:p.Cys138Ser,ENSG00000187456:ENST00000430160:exon3:c.412T&gt;A:p.Cys138Ser,ENSG00000187456:ENST00000293273:exon4:c.481T&gt;A:p.Cys161Ser,ENSG00000187456:ENST00000394528:exon4:c.481T&gt;A:p.Cys161Ser,ENSG00000187456:ENST00000431884:exon4:c.481T&gt;A:p.Cys161Ser</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ENSG00000187456:ENST00000394529:exon3:c.412T&gt;A:p.Cys138Ser,ENSG00000187456:ENST00000419453:exon3:c.412T&gt;A:p.Cys138Ser,ENSG00000187456:ENST00000430160:exon3:c.412T&gt;A:p.Cys138Ser,ENSG00000187456:ENST00000293273:exon4:c.481T&gt;A:p.Cys161Ser,ENSG00000187456:ENST00000394528:exon4:c.481T&gt;A:p.Cys161Ser,ENSG00000187456:ENST00000431884:exon4:c.481T&gt;A:p.Cys161Ser</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3450,31 +3357,26 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>34249481</v>
+      </c>
       <c r="S32" t="n">
-        <v>34249481</v>
-      </c>
-      <c r="T32" t="n">
         <v>34257303</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>RDM1</t>
         </is>
@@ -3484,92 +3386,89 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>725</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>chr21</t>
         </is>
+      </c>
+      <c r="C33" t="n">
+        <v>36164605</v>
       </c>
       <c r="D33" t="n">
         <v>36164605</v>
       </c>
-      <c r="E33" t="n">
-        <v>36164605</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000159216:ENST00000399240:exon5:c.997T&gt;C:p.Ser333Pro,ENSG00000159216:ENST00000344691:exon6:c.1189T&gt;C:p.Ser397Pro,ENSG00000159216:ENST00000325074:exon7:c.1234T&gt;C:p.Ser412Pro,ENSG00000159216:ENST00000300305:exon8:c.1270T&gt;C:p.Ser424Pro,ENSG00000159216:ENST00000437180:exon9:c.1270T&gt;C:p.Ser424Pro</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>ENSG00000159216:ENST00000399240:exon5:c.997T&gt;C:p.Ser333Pro,ENSG00000159216:ENST00000344691:exon6:c.1189T&gt;C:p.Ser397Pro,ENSG00000159216:ENST00000325074:exon7:c.1234T&gt;C:p.Ser412Pro,ENSG00000159216:ENST00000300305:exon8:c.1270T&gt;C:p.Ser424Pro,ENSG00000159216:ENST00000437180:exon9:c.1270T&gt;C:p.Ser424Pro</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG/Oncogenic</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>TSG/Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>chr6</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>36164520</v>
+      </c>
       <c r="S33" t="n">
-        <v>36164520</v>
-      </c>
-      <c r="T33" t="n">
         <v>36200567</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>BRPF3</t>
         </is>
@@ -3579,92 +3478,89 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>721</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>chr21</t>
         </is>
+      </c>
+      <c r="C34" t="n">
+        <v>36164610</v>
       </c>
       <c r="D34" t="n">
         <v>36164610</v>
       </c>
-      <c r="E34" t="n">
-        <v>36164610</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000159216:ENST00000399240:exon5:c.992A&gt;C:p.Glu331Ala,ENSG00000159216:ENST00000344691:exon6:c.1184A&gt;C:p.Glu395Ala,ENSG00000159216:ENST00000325074:exon7:c.1229A&gt;C:p.Glu410Ala,ENSG00000159216:ENST00000300305:exon8:c.1265A&gt;C:p.Glu422Ala,ENSG00000159216:ENST00000437180:exon9:c.1265A&gt;C:p.Glu422Ala</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ENSG00000159216:ENST00000399240:exon5:c.992A&gt;C:p.Glu331Ala,ENSG00000159216:ENST00000344691:exon6:c.1184A&gt;C:p.Glu395Ala,ENSG00000159216:ENST00000325074:exon7:c.1229A&gt;C:p.Glu410Ala,ENSG00000159216:ENST00000300305:exon8:c.1265A&gt;C:p.Glu422Ala,ENSG00000159216:ENST00000437180:exon9:c.1265A&gt;C:p.Glu422Ala</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG/Oncogenic</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>TSG/Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>chr6</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R34" t="n">
+        <v>36164520</v>
+      </c>
       <c r="S34" t="n">
-        <v>36164520</v>
-      </c>
-      <c r="T34" t="n">
         <v>36200567</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>BRPF3</t>
         </is>
@@ -3674,92 +3570,89 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>752</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C35" t="n">
+        <v>39239432</v>
       </c>
       <c r="D35" t="n">
         <v>39239432</v>
       </c>
-      <c r="E35" t="n">
-        <v>39239432</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000115904:ENST00000395038:exon14:c.2225T&gt;C:p.Ile742Thr,ENSG00000115904:ENST00000402219:exon14:c.2225T&gt;C:p.Ile742Thr,ENSG00000115904:ENST00000426016:exon15:c.2225T&gt;C:p.Ile742Thr</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>ENSG00000115904:ENST00000395038:exon14:c.2225T&gt;C:p.Ile742Thr,ENSG00000115904:ENST00000402219:exon14:c.2225T&gt;C:p.Ile742Thr,ENSG00000115904:ENST00000426016:exon15:c.2225T&gt;C:p.Ile742Thr</t>
+          <t>rs767494615</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>rs767494615</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Oncogenic</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>39226538</v>
+      </c>
       <c r="S35" t="n">
-        <v>39226538</v>
-      </c>
-      <c r="T35" t="n">
         <v>39251028</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>LINC01282</t>
         </is>
@@ -3769,58 +3662,60 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>746</v>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>chr15</t>
         </is>
+      </c>
+      <c r="C36" t="n">
+        <v>39874747</v>
       </c>
       <c r="D36" t="n">
         <v>39874747</v>
       </c>
-      <c r="E36" t="n">
-        <v>39874747</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000137801:ENST00000260356:exon3:c.421G&gt;C:p.Val141Leu</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ENSG00000137801:ENST00000260356:exon3:c.421G&gt;C:p.Val141Leu</t>
+          <t>rs370391850</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>rs370391850</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3830,31 +3725,26 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>39874744</v>
+      </c>
       <c r="S36" t="n">
-        <v>39874744</v>
-      </c>
-      <c r="T36" t="n">
         <v>39952810</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>MACF1</t>
         </is>
@@ -3864,92 +3754,89 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>720</v>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>chr22</t>
         </is>
+      </c>
+      <c r="C37" t="n">
+        <v>41574589</v>
       </c>
       <c r="D37" t="n">
         <v>41574589</v>
       </c>
-      <c r="E37" t="n">
-        <v>41574589</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000100393:ENST00000263253:exon31:c.6874C&gt;G:p.Pro2292Ala</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>ENSG00000100393:ENST00000263253:exon31:c.6874C&gt;G:p.Pro2292Ala</t>
+          <t>rs751592464</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>rs751592464</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>chr6</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>41566460</v>
+      </c>
       <c r="S37" t="n">
-        <v>41566460</v>
-      </c>
-      <c r="T37" t="n">
         <v>41566526</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>MIR4641</t>
         </is>
@@ -3959,58 +3846,60 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>740</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>chr8</t>
         </is>
+      </c>
+      <c r="C38" t="n">
+        <v>41583286</v>
       </c>
       <c r="D38" t="n">
         <v>41583286</v>
       </c>
-      <c r="E38" t="n">
-        <v>41583286</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000029534:ENST00000265709:exon6:c.704T&gt;G:p.Leu235Arg,ENSG00000029534:ENST00000289734:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000347528:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000352337:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000379758:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000396942:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000396945:exon6:c.605T&gt;G:p.Leu202Arg</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>ENSG00000029534:ENST00000265709:exon6:c.704T&gt;G:p.Leu235Arg,ENSG00000029534:ENST00000289734:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000347528:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000352337:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000379758:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000396942:exon6:c.605T&gt;G:p.Leu202Arg,ENSG00000029534:ENST00000396945:exon6:c.605T&gt;G:p.Leu202Arg</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4020,31 +3909,26 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R38" t="n">
+        <v>41582121</v>
+      </c>
       <c r="S38" t="n">
-        <v>41582121</v>
-      </c>
-      <c r="T38" t="n">
         <v>41968547</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>PDZRN4</t>
         </is>
@@ -4054,92 +3938,89 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>719</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>chr8</t>
         </is>
+      </c>
+      <c r="C39" t="n">
+        <v>41798952</v>
       </c>
       <c r="D39" t="n">
         <v>41798952</v>
       </c>
-      <c r="E39" t="n">
-        <v>41798952</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000083168:ENST00000418721:exon8:c.1187C&gt;A:p.Ser396Tyr,ENSG00000083168:ENST00000265713:exon15:c.2447C&gt;A:p.Ser816Tyr,ENSG00000083168:ENST00000396930:exon16:c.2447C&gt;A:p.Ser816Tyr,ENSG00000083168:ENST00000406337:exon16:c.2447C&gt;A:p.Ser816Tyr</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>ENSG00000083168:ENST00000418721:exon8:c.1187C&gt;A:p.Ser396Tyr,ENSG00000083168:ENST00000265713:exon15:c.2447C&gt;A:p.Ser816Tyr,ENSG00000083168:ENST00000396930:exon16:c.2447C&gt;A:p.Ser816Tyr,ENSG00000083168:ENST00000406337:exon16:c.2447C&gt;A:p.Ser816Tyr</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Oncogenic</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr15</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>chr15</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>41795834</v>
+      </c>
       <c r="S39" t="n">
-        <v>41795834</v>
-      </c>
-      <c r="T39" t="n">
         <v>41806025</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>LTK</t>
         </is>
@@ -4149,58 +4030,60 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>741</v>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>chr22</t>
         </is>
+      </c>
+      <c r="C40" t="n">
+        <v>42033619</v>
       </c>
       <c r="D40" t="n">
         <v>42033619</v>
       </c>
-      <c r="E40" t="n">
-        <v>42033619</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000196419:ENST00000405506:exon4:c.447C&gt;A:p.Phe149Leu,ENSG00000196419:ENST00000359308:exon5:c.597C&gt;A:p.Phe199Leu,ENSG00000196419:ENST00000428575:exon5:c.198C&gt;A:p.Phe66Leu,ENSG00000196419:ENST00000360079:exon6:c.597C&gt;A:p.Phe199Leu,ENSG00000196419:ENST00000402580:exon6:c.474C&gt;A:p.Phe158Leu,ENSG00000196419:ENST00000405878:exon6:c.597C&gt;A:p.Phe199Leu</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>ENSG00000196419:ENST00000405506:exon4:c.447C&gt;A:p.Phe149Leu,ENSG00000196419:ENST00000359308:exon5:c.597C&gt;A:p.Phe199Leu,ENSG00000196419:ENST00000428575:exon5:c.198C&gt;A:p.Phe66Leu,ENSG00000196419:ENST00000360079:exon6:c.597C&gt;A:p.Phe199Leu,ENSG00000196419:ENST00000402580:exon6:c.474C&gt;A:p.Phe158Leu,ENSG00000196419:ENST00000405878:exon6:c.597C&gt;A:p.Phe199Leu</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4210,31 +4093,26 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>chr8</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>42032235</v>
+      </c>
       <c r="S40" t="n">
-        <v>42032235</v>
-      </c>
-      <c r="T40" t="n">
         <v>42065083</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>PLAT</t>
         </is>
@@ -4244,58 +4122,60 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>699</v>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>chr18</t>
         </is>
+      </c>
+      <c r="C41" t="n">
+        <v>45372138</v>
       </c>
       <c r="D41" t="n">
         <v>45372138</v>
       </c>
-      <c r="E41" t="n">
-        <v>45372138</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000175387:ENST00000586040:exon7:c.941A&gt;T:p.Glu314Val,ENSG00000175387:ENST00000356825:exon8:c.941A&gt;T:p.Glu314Val,ENSG00000175387:ENST00000591214:exon8:c.941A&gt;T:p.Glu314Val,ENSG00000175387:ENST00000262160:exon9:c.1031A&gt;T:p.Glu344Val,ENSG00000175387:ENST00000402690:exon9:c.1031A&gt;T:p.Glu344Val</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ENSG00000175387:ENST00000586040:exon7:c.941A&gt;T:p.Glu314Val,ENSG00000175387:ENST00000356825:exon8:c.941A&gt;T:p.Glu314Val,ENSG00000175387:ENST00000591214:exon8:c.941A&gt;T:p.Glu314Val,ENSG00000175387:ENST00000262160:exon9:c.1031A&gt;T:p.Glu344Val,ENSG00000175387:ENST00000402690:exon9:c.1031A&gt;T:p.Glu344Val</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4305,31 +4185,26 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr14</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>chr14</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>45368110</v>
+      </c>
       <c r="S41" t="n">
-        <v>45368110</v>
-      </c>
-      <c r="T41" t="n">
         <v>45381120</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>LOC101927418</t>
         </is>
@@ -4339,58 +4214,60 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>715</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C42" t="n">
+        <v>46901132</v>
       </c>
       <c r="D42" t="n">
         <v>46901132</v>
       </c>
-      <c r="E42" t="n">
-        <v>46901132</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000160808:ENST00000292327:exon4:c.314A&gt;C:p.Asn105Thr,ENSG00000160808:ENST00000395869:exon4:c.314A&gt;C:p.Asn105Thr</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ENSG00000160808:ENST00000292327:exon4:c.314A&gt;C:p.Asn105Thr,ENSG00000160808:ENST00000395869:exon4:c.314A&gt;C:p.Asn105Thr</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>LIKELY_PATHOGENIC</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>LIKELY_PATHOGENIC</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4400,31 +4277,26 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>46899498</v>
+      </c>
       <c r="S42" t="n">
-        <v>46899498</v>
-      </c>
-      <c r="T42" t="n">
         <v>46911374</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>FAAHP1</t>
         </is>
@@ -4434,58 +4306,60 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>734</v>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>chr21</t>
         </is>
+      </c>
+      <c r="C43" t="n">
+        <v>46929490</v>
       </c>
       <c r="D43" t="n">
         <v>46929490</v>
       </c>
-      <c r="E43" t="n">
-        <v>46929490</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000182871:ENST00000342220:exon20:c.1514A&gt;C:p.His505Pro,ENSG00000182871:ENST00000355480:exon38:c.4010A&gt;C:p.His1337Pro,ENSG00000182871:ENST00000359759:exon38:c.4715A&gt;C:p.His1572Pro,ENSG00000182871:ENST00000400337:exon39:c.3470A&gt;C:p.His1157Pro</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ENSG00000182871:ENST00000342220:exon20:c.1514A&gt;C:p.His505Pro,ENSG00000182871:ENST00000355480:exon38:c.4010A&gt;C:p.His1337Pro,ENSG00000182871:ENST00000359759:exon38:c.4715A&gt;C:p.His1572Pro,ENSG00000182871:ENST00000400337:exon39:c.3470A&gt;C:p.His1157Pro</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4495,31 +4369,26 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>chr19</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>46927953</v>
+      </c>
       <c r="S43" t="n">
-        <v>46927953</v>
-      </c>
-      <c r="T43" t="n">
         <v>46932193</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>PNMA8C</t>
         </is>
@@ -4529,58 +4398,60 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>706</v>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>chr20</t>
         </is>
+      </c>
+      <c r="C44" t="n">
+        <v>47649660</v>
       </c>
       <c r="D44" t="n">
         <v>47649660</v>
       </c>
-      <c r="E44" t="n">
-        <v>47649660</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000124198:ENST00000371917:exon39:c.5282G&gt;A:p.Arg1761Gln</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ENSG00000124198:ENST00000371917:exon39:c.5282G&gt;A:p.Arg1761Gln</t>
+          <t>rs771293652</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>rs771293652</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4590,31 +4461,26 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R44" t="n">
+        <v>47649253</v>
+      </c>
       <c r="S44" t="n">
-        <v>47649253</v>
-      </c>
-      <c r="T44" t="n">
         <v>47655708</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>PDZK1IP1</t>
         </is>
@@ -4624,92 +4490,89 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>688</v>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C45" t="n">
+        <v>48026567</v>
       </c>
       <c r="D45" t="n">
         <v>48026567</v>
       </c>
-      <c r="E45" t="n">
-        <v>48026567</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000116062:ENST00000540021:exon2:c.1055G&gt;A:p.Arg352Gln,ENSG00000116062:ENST00000234420:exon4:c.1445G&gt;A:p.Arg482Gln,ENSG00000116062:ENST00000538136:exon4:c.539G&gt;A:p.Arg180Gln</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ENSG00000116062:ENST00000540021:exon2:c.1055G&gt;A:p.Arg352Gln,ENSG00000116062:ENST00000234420:exon4:c.1445G&gt;A:p.Arg482Gln,ENSG00000116062:ENST00000538136:exon4:c.539G&gt;A:p.Arg180Gln</t>
+          <t>rs773226008</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>rs773226008</t>
+          <t xml:space="preserve">clinvar: Uncertain_significance </t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Uncertain_significance </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>chr19</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>48023946</v>
+      </c>
       <c r="S45" t="n">
-        <v>48023946</v>
-      </c>
-      <c r="T45" t="n">
         <v>48076405</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>ZNF541</t>
         </is>
@@ -4719,92 +4582,89 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>747</v>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C46" t="n">
+        <v>48027506</v>
       </c>
       <c r="D46" t="n">
         <v>48027506</v>
       </c>
-      <c r="E46" t="n">
-        <v>48027506</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000116062:ENST00000540021:exon2:c.1994T&gt;C:p.Ile665Thr,ENSG00000116062:ENST00000234420:exon4:c.2384T&gt;C:p.Ile795Thr,ENSG00000116062:ENST00000538136:exon4:c.1478T&gt;C:p.Ile493Thr</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ENSG00000116062:ENST00000540021:exon2:c.1994T&gt;C:p.Ile665Thr,ENSG00000116062:ENST00000234420:exon4:c.2384T&gt;C:p.Ile795Thr,ENSG00000116062:ENST00000538136:exon4:c.1478T&gt;C:p.Ile493Thr</t>
+          <t>rs202127474</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>rs202127474</t>
+          <t xml:space="preserve">clinvar: Conflicting_interpretations_of_pathogenicity </t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Conflicting_interpretations_of_pathogenicity </t>
+          <t>LIKELY_BENIGN</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>LIKELY_BENIGN</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr22</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>chr22</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>48027422</v>
+      </c>
       <c r="S46" t="n">
-        <v>48027422</v>
-      </c>
-      <c r="T46" t="n">
         <v>48251349</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>EPIC1</t>
         </is>
@@ -4814,58 +4674,60 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>743</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C47" t="n">
+        <v>48145375</v>
       </c>
       <c r="D47" t="n">
         <v>48145375</v>
       </c>
-      <c r="E47" t="n">
-        <v>48145375</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000149177:ENST00000418331:exon5:c.827A&gt;C:p.Gln276Pro,ENSG00000149177:ENST00000440289:exon5:c.827A&gt;C:p.Gln276Pro</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>ENSG00000149177:ENST00000418331:exon5:c.827A&gt;C:p.Gln276Pro,ENSG00000149177:ENST00000440289:exon5:c.827A&gt;C:p.Gln276Pro</t>
+          <t>rs1566734</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>rs1566734</t>
+          <t xml:space="preserve">clinvar: Pathogenic </t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Pathogenic </t>
+          <t>BENIGN</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>BENIGN</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4875,31 +4737,26 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>chr4</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>48137799</v>
+      </c>
       <c r="S47" t="n">
-        <v>48137799</v>
-      </c>
-      <c r="T47" t="n">
         <v>48271855</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>TEC</t>
         </is>
@@ -4909,92 +4766,89 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>609</v>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>chr13</t>
         </is>
+      </c>
+      <c r="C48" t="n">
+        <v>49033844</v>
       </c>
       <c r="D48" t="n">
         <v>49033844</v>
       </c>
-      <c r="E48" t="n">
-        <v>49033844</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000139687:ENST00000267163:exon20:c.1981C&gt;T:p.Arg661Trp</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>ENSG00000139687:ENST00000267163:exon20:c.1981C&gt;T:p.Arg661Trp</t>
+          <t>rs137853294</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>rs137853294</t>
+          <t xml:space="preserve">clinvar: Pathogenic </t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Pathogenic </t>
+          <t>LIKELY_PATHOGENIC</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>LIKELY_PATHOGENIC</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>49031150</v>
+      </c>
       <c r="S48" t="n">
-        <v>49031150</v>
-      </c>
-      <c r="T48" t="n">
         <v>49042826</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>PRICKLE3</t>
         </is>
@@ -5004,58 +4858,60 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>766</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>chr10</t>
         </is>
+      </c>
+      <c r="C49" t="n">
+        <v>51586643</v>
       </c>
       <c r="D49" t="n">
         <v>51586643</v>
       </c>
-      <c r="E49" t="n">
-        <v>51586643</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000138293:ENST00000452682:exon11:c.1921G&gt;A:p.Val641Ile</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ENSG00000138293:ENST00000452682:exon11:c.1921G&gt;A:p.Val641Ile</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5065,31 +4921,26 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>chr6</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>51585646</v>
+      </c>
       <c r="S49" t="n">
-        <v>51585646</v>
-      </c>
-      <c r="T49" t="n">
         <v>51952411</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>PKHD1</t>
         </is>
@@ -5099,58 +4950,60 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>612</v>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C50" t="n">
+        <v>53223080</v>
       </c>
       <c r="D50" t="n">
         <v>53223080</v>
       </c>
-      <c r="E50" t="n">
-        <v>53223080</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Stopgain</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Stopgain</t>
+          <t>ENSG00000163932:ENST00000394729:exon16:c.1561C&gt;T:p.Gln521X,ENSG00000163932:ENST00000330452:exon17:c.1561C&gt;T:p.Gln521Ter</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>ENSG00000163932:ENST00000394729:exon16:c.1561C&gt;T:p.Gln521X,ENSG00000163932:ENST00000330452:exon17:c.1561C&gt;T:p.Gln521Ter</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>PATHOGENIC</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>PATHOGENIC</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -5160,31 +5013,26 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>53221339</v>
+      </c>
       <c r="S50" t="n">
-        <v>53221339</v>
-      </c>
-      <c r="T50" t="n">
         <v>53254389</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>KDM5C</t>
         </is>
@@ -5194,58 +5042,60 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>692</v>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>chr15</t>
         </is>
+      </c>
+      <c r="C51" t="n">
+        <v>54542454</v>
       </c>
       <c r="D51" t="n">
         <v>54542454</v>
       </c>
-      <c r="E51" t="n">
-        <v>54542454</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000137766:ENST00000537900:exon6:c.3254C&gt;A:p.Ala1085Glu,ENSG00000137766:ENST00000260323:exon7:c.3260C&gt;A:p.Ala1087Glu,ENSG00000137766:ENST00000545554:exon7:c.3260C&gt;A:p.Ala1087Glu</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ENSG00000137766:ENST00000537900:exon6:c.3254C&gt;A:p.Ala1085Glu,ENSG00000137766:ENST00000260323:exon7:c.3260C&gt;A:p.Ala1087Glu,ENSG00000137766:ENST00000545554:exon7:c.3260C&gt;A:p.Ala1087Glu</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5255,31 +5105,26 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>chr5</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>54526979</v>
+      </c>
       <c r="S51" t="n">
-        <v>54526979</v>
-      </c>
-      <c r="T51" t="n">
         <v>54529436</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>CCNO</t>
         </is>
@@ -5289,92 +5134,89 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>691</v>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>chr7</t>
         </is>
+      </c>
+      <c r="C52" t="n">
+        <v>55227884</v>
       </c>
       <c r="D52" t="n">
         <v>55227884</v>
       </c>
-      <c r="E52" t="n">
-        <v>55227884</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000146648:ENST00000455089:exon11:c.1216C&gt;T:p.Arg406Cys,ENSG00000146648:ENST00000275493:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000342916:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000344576:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000442591:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000454757:exon12:c.1192C&gt;T:p.Arg398Cys</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ENSG00000146648:ENST00000455089:exon11:c.1216C&gt;T:p.Arg406Cys,ENSG00000146648:ENST00000275493:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000342916:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000344576:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000442591:exon12:c.1351C&gt;T:p.Arg451Cys,ENSG00000146648:ENST00000454757:exon12:c.1192C&gt;T:p.Arg398Cys</t>
+          <t>rs377567759</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>rs377567759</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>LIKELY_PATHOGENIC</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>LIKELY_PATHOGENIC</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Oncogenic</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R52" t="n">
+        <v>55222570</v>
+      </c>
       <c r="S52" t="n">
-        <v>55222570</v>
-      </c>
-      <c r="T52" t="n">
         <v>55230196</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>PARS2</t>
         </is>
@@ -5384,58 +5226,60 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>709</v>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C53" t="n">
+        <v>55863511</v>
       </c>
       <c r="D53" t="n">
         <v>55863511</v>
       </c>
-      <c r="E53" t="n">
-        <v>55863511</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000138035:ENST00000415374:exon28:c.2213G&gt;A:p.Arg738His,ENSG00000138035:ENST00000447944:exon28:c.2213G&gt;A:p.Arg738His</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>ENSG00000138035:ENST00000415374:exon28:c.2213G&gt;A:p.Arg738His,ENSG00000138035:ENST00000447944:exon28:c.2213G&gt;A:p.Arg738His</t>
+          <t>rs574670461</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>rs574670461</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -5445,31 +5289,26 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R53" t="n">
+        <v>55862983</v>
+      </c>
       <c r="S53" t="n">
-        <v>55862983</v>
-      </c>
-      <c r="T53" t="n">
         <v>55863922</v>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>OR6C70</t>
         </is>
@@ -5479,33 +5318,35 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>685</v>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>chr12</t>
         </is>
+      </c>
+      <c r="C54" t="n">
+        <v>56487870</v>
       </c>
       <c r="D54" t="n">
         <v>56487870</v>
       </c>
-      <c r="E54" t="n">
-        <v>56487870</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5520,12 +5361,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>.</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -5535,36 +5376,31 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Oncogenic</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr16</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>chr16</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R54" t="n">
+        <v>56485995</v>
+      </c>
       <c r="S54" t="n">
-        <v>56485995</v>
-      </c>
-      <c r="T54" t="n">
         <v>56513016</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>OGFOD1</t>
         </is>
@@ -5574,58 +5410,60 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>714</v>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C55" t="n">
+        <v>63010683</v>
       </c>
       <c r="D55" t="n">
         <v>63010683</v>
       </c>
-      <c r="E55" t="n">
-        <v>63010683</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000120063:ENST00000439174:exon4:c.826G&gt;A:p.Val276Ile,ENSG00000120063:ENST00000541118:exon4:c.541G&gt;A:p.Val181Ile</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>ENSG00000120063:ENST00000439174:exon4:c.826G&gt;A:p.Val276Ile,ENSG00000120063:ENST00000541118:exon4:c.541G&gt;A:p.Val181Ile</t>
+          <t>rs563262712</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>rs563262712</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5635,31 +5473,26 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R55" t="n">
+        <v>63005881</v>
+      </c>
       <c r="S55" t="n">
-        <v>63005881</v>
-      </c>
-      <c r="T55" t="n">
         <v>63005967</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>MIR1468</t>
         </is>
@@ -5669,92 +5502,89 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>762</v>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>chrX</t>
         </is>
+      </c>
+      <c r="C56" t="n">
+        <v>66765158</v>
       </c>
       <c r="D56" t="n">
         <v>66765158</v>
       </c>
-      <c r="E56" t="n">
-        <v>66765158</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000169083:ENST00000374690:exon1:c.170T&gt;A:p.Leu57Gln,ENSG00000169083:ENST00000396044:exon1:c.170T&gt;A:p.Leu57Gln,ENSG00000169083:ENST00000504326:exon1:c.170T&gt;A:p.Leu57Gln,ENSG00000169083:ENST00000514029:exon1:c.170T&gt;A:p.Leu57Gln</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>ENSG00000169083:ENST00000374690:exon1:c.170T&gt;A:p.Leu57Gln,ENSG00000169083:ENST00000396044:exon1:c.170T&gt;A:p.Leu57Gln,ENSG00000169083:ENST00000504326:exon1:c.170T&gt;A:p.Leu57Gln,ENSG00000169083:ENST00000514029:exon1:c.170T&gt;A:p.Leu57Gln</t>
+          <t>rs78686797</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>rs78686797</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Oncogenic</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R56" t="n">
+        <v>66764464</v>
+      </c>
       <c r="S56" t="n">
-        <v>66764464</v>
-      </c>
-      <c r="T56" t="n">
         <v>66915917</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
@@ -5764,58 +5594,60 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>708</v>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C57" t="n">
+        <v>69625359</v>
       </c>
       <c r="D57" t="n">
         <v>69625359</v>
       </c>
-      <c r="E57" t="n">
-        <v>69625359</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000186895:ENST00000334134:exon3:c.434G&gt;A:p.Arg145Gln</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ENSG00000186895:ENST00000334134:exon3:c.434G&gt;A:p.Arg145Gln</t>
+          <t>rs782088765</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>rs782088765</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5825,31 +5657,26 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr11</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>chr11</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R57" t="n">
+        <v>69624735</v>
+      </c>
       <c r="S57" t="n">
-        <v>69624735</v>
-      </c>
-      <c r="T57" t="n">
         <v>69634184</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>FGF3</t>
         </is>
@@ -5859,58 +5686,60 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>701</v>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>chr10</t>
         </is>
+      </c>
+      <c r="C58" t="n">
+        <v>70225511</v>
       </c>
       <c r="D58" t="n">
         <v>70225511</v>
       </c>
-      <c r="E58" t="n">
-        <v>70225511</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000138346:ENST00000358410:exon4:c.500A&gt;G:p.Gln167Arg,ENSG00000138346:ENST00000399179:exon4:c.500A&gt;G:p.Gln167Arg,ENSG00000138346:ENST00000399180:exon4:c.758A&gt;G:p.Gln253Arg,ENSG00000138346:ENST00000551118:exon4:c.500A&gt;G:p.Gln167Arg</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>ENSG00000138346:ENST00000358410:exon4:c.500A&gt;G:p.Gln167Arg,ENSG00000138346:ENST00000399179:exon4:c.500A&gt;G:p.Gln167Arg,ENSG00000138346:ENST00000399180:exon4:c.758A&gt;G:p.Gln253Arg,ENSG00000138346:ENST00000551118:exon4:c.500A&gt;G:p.Gln167Arg</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5920,31 +5749,26 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr16</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>chr16</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R58" t="n">
+        <v>70222224</v>
+      </c>
       <c r="S58" t="n">
-        <v>70222224</v>
-      </c>
-      <c r="T58" t="n">
         <v>70223155</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>LOC105371328</t>
         </is>
@@ -5954,58 +5778,60 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>716</v>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>chr15</t>
         </is>
+      </c>
+      <c r="C59" t="n">
+        <v>74336726</v>
       </c>
       <c r="D59" t="n">
         <v>74336726</v>
       </c>
-      <c r="E59" t="n">
-        <v>74336726</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000140464:ENST00000565898:exon8:c.1882T&gt;A:p.Cys628Ser,ENSG00000140464:ENST00000268058:exon9:c.2026T&gt;A:p.Cys676Ser</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ENSG00000140464:ENST00000565898:exon8:c.1882T&gt;A:p.Cys628Ser,ENSG00000140464:ENST00000268058:exon9:c.2026T&gt;A:p.Cys676Ser</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6015,31 +5841,26 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr18</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>chr18</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R59" t="n">
+        <v>74334737</v>
+      </c>
       <c r="S59" t="n">
-        <v>74334737</v>
-      </c>
-      <c r="T59" t="n">
         <v>74350968</v>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>LINC01927</t>
         </is>
@@ -6049,58 +5870,60 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>722</v>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C60" t="n">
+        <v>74351615</v>
       </c>
       <c r="D60" t="n">
         <v>74351615</v>
       </c>
-      <c r="E60" t="n">
-        <v>74351615</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000077514:ENST00000532497:exon11:c.887A&gt;T:p.Glu296Val,ENSG00000077514:ENST00000263681:exon12:c.1205A&gt;T:p.Glu402Val,ENSG00000077514:ENST00000527458:exon12:c.1088A&gt;T:p.Glu363Val</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ENSG00000077514:ENST00000532497:exon11:c.887A&gt;T:p.Glu296Val,ENSG00000077514:ENST00000263681:exon12:c.1205A&gt;T:p.Glu402Val,ENSG00000077514:ENST00000527458:exon12:c.1088A&gt;T:p.Glu363Val</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6110,31 +5933,26 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>chr4</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R60" t="n">
+        <v>74347461</v>
+      </c>
       <c r="S60" t="n">
-        <v>74347461</v>
-      </c>
-      <c r="T60" t="n">
         <v>74369718</v>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>AFM</t>
         </is>
@@ -6144,58 +5962,60 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>710</v>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>chr1</t>
         </is>
+      </c>
+      <c r="C61" t="n">
+        <v>76356397</v>
       </c>
       <c r="D61" t="n">
         <v>76356397</v>
       </c>
-      <c r="E61" t="n">
-        <v>76356397</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000057468:ENST00000263187:exon17:c.2243A&gt;T:p.His748Leu</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ENSG00000057468:ENST00000263187:exon17:c.2243A&gt;T:p.His748Leu</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -6205,31 +6025,26 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R61" t="n">
+        <v>76352858</v>
+      </c>
       <c r="S61" t="n">
-        <v>76352858</v>
-      </c>
-      <c r="T61" t="n">
         <v>76355748</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>SOCS3</t>
         </is>
@@ -6239,92 +6054,89 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>696</v>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>chr5</t>
         </is>
+      </c>
+      <c r="C62" t="n">
+        <v>80168977</v>
       </c>
       <c r="D62" t="n">
         <v>80168977</v>
       </c>
-      <c r="E62" t="n">
-        <v>80168977</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000113318:ENST00000265081:exon23:c.3173A&gt;T:p.Gln1058Leu</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ENSG00000113318:ENST00000265081:exon23:c.3173A&gt;T:p.Gln1058Leu</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG/Oncogenic</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>TSG/Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr12</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>chr12</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R62" t="n">
+        <v>80167347</v>
+      </c>
       <c r="S62" t="n">
-        <v>80167347</v>
-      </c>
-      <c r="T62" t="n">
         <v>80307691</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>PPP1R12A</t>
         </is>
@@ -6334,58 +6146,60 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>724</v>
-      </c>
-      <c r="C63" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>chr7</t>
         </is>
+      </c>
+      <c r="C63" t="n">
+        <v>82584816</v>
       </c>
       <c r="D63" t="n">
         <v>82584816</v>
       </c>
-      <c r="E63" t="n">
-        <v>82584816</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000186472:ENST00000333891:exon5:c.5453G&gt;T:p.Arg1818Ile,ENSG00000186472:ENST00000423517:exon5:c.5453G&gt;T:p.Arg1818Ile</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>ENSG00000186472:ENST00000333891:exon5:c.5453G&gt;T:p.Arg1818Ile,ENSG00000186472:ENST00000423517:exon5:c.5453G&gt;T:p.Arg1818Ile</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -6395,31 +6209,26 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>chr8</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R63" t="n">
+        <v>82569148</v>
+      </c>
       <c r="S63" t="n">
-        <v>82569148</v>
-      </c>
-      <c r="T63" t="n">
         <v>82598560</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>IMPA1</t>
         </is>
@@ -6429,92 +6238,89 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>768</v>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>chr15</t>
         </is>
+      </c>
+      <c r="C64" t="n">
+        <v>89867387</v>
       </c>
       <c r="D64" t="n">
         <v>89867387</v>
       </c>
-      <c r="E64" t="n">
-        <v>89867387</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000140521:ENST00000526314:exon3:c.389G&gt;A:p.Gly130Asp,ENSG00000140521:ENST00000268124:exon11:c.2021G&gt;A:p.Gly674Asp,ENSG00000140521:ENST00000442287:exon11:c.2021G&gt;A:p.Gly674Asp</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ENSG00000140521:ENST00000526314:exon3:c.389G&gt;A:p.Gly130Asp,ENSG00000140521:ENST00000268124:exon11:c.2021G&gt;A:p.Gly674Asp,ENSG00000140521:ENST00000442287:exon11:c.2021G&gt;A:p.Gly674Asp</t>
+          <t>rs200257554</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>rs200257554</t>
+          <t xml:space="preserve">clinvar: Conflicting_interpretations_of_pathogenicity </t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Conflicting_interpretations_of_pathogenicity </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr13</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>chr13</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R64" t="n">
+        <v>89867100</v>
+      </c>
       <c r="S64" t="n">
-        <v>89867100</v>
-      </c>
-      <c r="T64" t="n">
         <v>89889144</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>LINC01047</t>
         </is>
@@ -6524,33 +6330,35 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>655</v>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>chr15</t>
         </is>
+      </c>
+      <c r="C65" t="n">
+        <v>90631571</v>
       </c>
       <c r="D65" t="n">
         <v>90631571</v>
       </c>
-      <c r="E65" t="n">
-        <v>90631571</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6565,12 +6373,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>.</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -6585,31 +6393,26 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr15</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>chr15</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R65" t="n">
+        <v>90627209</v>
+      </c>
       <c r="S65" t="n">
-        <v>90627209</v>
-      </c>
-      <c r="T65" t="n">
         <v>90643853</v>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>IDH2</t>
         </is>
@@ -6619,92 +6422,89 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>703</v>
-      </c>
-      <c r="C66" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>chr15</t>
         </is>
+      </c>
+      <c r="C66" t="n">
+        <v>93489433</v>
       </c>
       <c r="D66" t="n">
         <v>93489433</v>
       </c>
-      <c r="E66" t="n">
-        <v>93489433</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000173575:ENST00000536619:exon11:c.1403C&gt;G:p.Thr468Arg,ENSG00000173575:ENST00000394196:exon12:c.1364C&gt;G:p.Thr455Arg,ENSG00000173575:ENST00000420239:exon12:c.1364C&gt;G:p.Thr455Arg,ENSG00000173575:ENST00000557381:exon12:c.1364C&gt;G:p.Thr455Arg</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ENSG00000173575:ENST00000536619:exon11:c.1403C&gt;G:p.Thr468Arg,ENSG00000173575:ENST00000394196:exon12:c.1364C&gt;G:p.Thr455Arg,ENSG00000173575:ENST00000420239:exon12:c.1364C&gt;G:p.Thr455Arg,ENSG00000173575:ENST00000557381:exon12:c.1364C&gt;G:p.Thr455Arg</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>chr5</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R66" t="n">
+        <v>93486555</v>
+      </c>
       <c r="S66" t="n">
-        <v>93486555</v>
-      </c>
-      <c r="T66" t="n">
         <v>93954309</v>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>KIAA0825</t>
         </is>
@@ -6714,58 +6514,60 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>745</v>
-      </c>
-      <c r="C67" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>chrX</t>
         </is>
+      </c>
+      <c r="C67" t="n">
+        <v>100652892</v>
       </c>
       <c r="D67" t="n">
         <v>100652892</v>
       </c>
-      <c r="E67" t="n">
-        <v>100652892</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000102393:ENST00000218516:exon7:c.1195T&gt;A:p.Trp399Arg</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ENSG00000102393:ENST00000218516:exon7:c.1195T&gt;A:p.Trp399Arg</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6775,31 +6577,26 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R67" t="n">
+        <v>100652790</v>
+      </c>
       <c r="S67" t="n">
-        <v>100652790</v>
-      </c>
-      <c r="T67" t="n">
         <v>100662913</v>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>GLA</t>
         </is>
@@ -6809,58 +6606,60 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>726</v>
-      </c>
-      <c r="C68" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C68" t="n">
+        <v>100912728</v>
       </c>
       <c r="D68" t="n">
         <v>100912728</v>
       </c>
-      <c r="E68" t="n">
-        <v>100912728</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000082175:ENST00000263463:exon6:c.2288C&gt;T:p.Ser763Leu,ENSG00000082175:ENST00000325455:exon7:c.2594C&gt;T:p.Ser865Leu,ENSG00000082175:ENST00000534013:exon7:c.812C&gt;T:p.Ser271Leu</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ENSG00000082175:ENST00000263463:exon6:c.2288C&gt;T:p.Ser763Leu,ENSG00000082175:ENST00000325455:exon7:c.2594C&gt;T:p.Ser865Leu,ENSG00000082175:ENST00000534013:exon7:c.812C&gt;T:p.Ser271Leu</t>
+          <t>rs2020880</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>rs2020880</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6870,31 +6669,26 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R68" t="n">
+        <v>100910266</v>
+      </c>
       <c r="S68" t="n">
-        <v>100910266</v>
-      </c>
-      <c r="T68" t="n">
         <v>100914835</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>ARMCX2</t>
         </is>
@@ -6904,58 +6698,60 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>694</v>
-      </c>
-      <c r="C69" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>chr13</t>
         </is>
+      </c>
+      <c r="C69" t="n">
+        <v>101726895</v>
       </c>
       <c r="D69" t="n">
         <v>101726895</v>
       </c>
-      <c r="E69" t="n">
-        <v>101726895</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000102452:ENST00000251127:exon36:c.4073G&gt;A:p.Gly1358Asp</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ENSG00000102452:ENST00000251127:exon36:c.4073G&gt;A:p.Gly1358Asp</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6965,31 +6761,26 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr15</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>chr15</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R69" t="n">
+        <v>101715931</v>
+      </c>
       <c r="S69" t="n">
-        <v>101715931</v>
-      </c>
-      <c r="T69" t="n">
         <v>101792253</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>CHSY1</t>
         </is>
@@ -6999,58 +6790,60 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>742</v>
-      </c>
-      <c r="C70" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>chr12</t>
         </is>
+      </c>
+      <c r="C70" t="n">
+        <v>102542173</v>
       </c>
       <c r="D70" t="n">
         <v>102542173</v>
       </c>
-      <c r="E70" t="n">
-        <v>102542173</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000185480:ENST00000412715:exon2:c.220C&gt;A:p.Leu74Met,ENSG00000185480:ENST00000417507:exon2:c.220C&gt;A:p.Leu74Met,ENSG00000185480:ENST00000358383:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000378128:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000392909:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000392911:exon3:c.76C&gt;A:p.Leu26Met,ENSG00000185480:ENST00000537257:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000541394:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000327680:exon4:c.76C&gt;A:p.Leu26Met</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ENSG00000185480:ENST00000412715:exon2:c.220C&gt;A:p.Leu74Met,ENSG00000185480:ENST00000417507:exon2:c.220C&gt;A:p.Leu74Met,ENSG00000185480:ENST00000358383:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000378128:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000392909:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000392911:exon3:c.76C&gt;A:p.Leu26Met,ENSG00000185480:ENST00000537257:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000541394:exon3:c.319C&gt;A:p.Leu107Met,ENSG00000185480:ENST00000327680:exon4:c.76C&gt;A:p.Leu26Met</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7060,31 +6853,26 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chrX</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R70" t="n">
+        <v>102528618</v>
+      </c>
       <c r="S70" t="n">
-        <v>102528618</v>
-      </c>
-      <c r="T70" t="n">
         <v>102531678</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>TCEAL5</t>
         </is>
@@ -7094,58 +6882,60 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>755</v>
-      </c>
-      <c r="C71" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>chr4</t>
         </is>
+      </c>
+      <c r="C71" t="n">
+        <v>106158383</v>
       </c>
       <c r="D71" t="n">
         <v>106158383</v>
       </c>
-      <c r="E71" t="n">
-        <v>106158383</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000168769:ENST00000413648:exon2:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000265149:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000305737:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000380013:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000394764:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000513237:exon3:c.3347G&gt;A:p.Arg1116Lys,ENSG00000168769:ENST00000540549:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000545826:exon3:c.3284G&gt;A:p.Arg1095Lys</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ENSG00000168769:ENST00000413648:exon2:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000265149:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000305737:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000380013:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000394764:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000513237:exon3:c.3347G&gt;A:p.Arg1116Lys,ENSG00000168769:ENST00000540549:exon3:c.3284G&gt;A:p.Arg1095Lys,ENSG00000168769:ENST00000545826:exon3:c.3284G&gt;A:p.Arg1095Lys</t>
+          <t>rs540890679</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>rs540890679</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7155,31 +6945,26 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>chr5</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R71" t="n">
+        <v>106150897</v>
+      </c>
       <c r="S71" t="n">
-        <v>106150897</v>
-      </c>
-      <c r="T71" t="n">
         <v>106346715</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>LINC01950</t>
         </is>
@@ -7189,33 +6974,35 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>646</v>
-      </c>
-      <c r="C72" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>chr8</t>
         </is>
+      </c>
+      <c r="C72" t="n">
+        <v>109001282</v>
       </c>
       <c r="D72" t="n">
         <v>109001282</v>
       </c>
-      <c r="E72" t="n">
-        <v>109001282</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>splicing</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>splicing</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -7230,12 +7017,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>.</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -7245,36 +7032,31 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr2</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>chr2</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R72" t="n">
+        <v>108994409</v>
+      </c>
       <c r="S72" t="n">
-        <v>108994409</v>
-      </c>
-      <c r="T72" t="n">
         <v>109005445</v>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>SULT1C4</t>
         </is>
@@ -7284,58 +7066,60 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>759</v>
-      </c>
-      <c r="C73" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>chr13</t>
         </is>
+      </c>
+      <c r="C73" t="n">
+        <v>110435567</v>
       </c>
       <c r="D73" t="n">
         <v>110435567</v>
       </c>
-      <c r="E73" t="n">
-        <v>110435567</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000185950:ENST00000375856:exon1:c.2834C&gt;T:p.Ser945Phe</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>ENSG00000185950:ENST00000375856:exon1:c.2834C&gt;T:p.Ser945Phe</t>
+          <t>rs780304023</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>rs780304023</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -7345,31 +7129,26 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>chr5</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R73" t="n">
+        <v>110428045</v>
+      </c>
       <c r="S73" t="n">
-        <v>110428045</v>
-      </c>
-      <c r="T73" t="n">
         <v>110466200</v>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>WDR36</t>
         </is>
@@ -7379,58 +7158,60 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>718</v>
-      </c>
-      <c r="C74" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>chr5</t>
         </is>
+      </c>
+      <c r="C74" t="n">
+        <v>121413070</v>
       </c>
       <c r="D74" t="n">
         <v>121413070</v>
       </c>
-      <c r="E74" t="n">
-        <v>121413070</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000113083:ENST00000231004:exon1:c.611G&gt;A:p.Gly204Asp,ENSG00000113083:ENST00000508067:exon1:c.98G&gt;A:p.Gly33Asp</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>ENSG00000113083:ENST00000231004:exon1:c.611G&gt;A:p.Gly204Asp,ENSG00000113083:ENST00000508067:exon1:c.98G&gt;A:p.Gly33Asp</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -7440,31 +7221,26 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr10</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>chr10</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R74" t="n">
+        <v>121410891</v>
+      </c>
       <c r="S74" t="n">
-        <v>121410891</v>
-      </c>
-      <c r="T74" t="n">
         <v>121437331</v>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>BAG3</t>
         </is>
@@ -7474,92 +7250,89 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>698</v>
-      </c>
-      <c r="C75" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>chr4</t>
         </is>
+      </c>
+      <c r="C75" t="n">
+        <v>126371914</v>
       </c>
       <c r="D75" t="n">
         <v>126371914</v>
       </c>
-      <c r="E75" t="n">
-        <v>126371914</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000196159:ENST00000335110:exon9:c.4637G&gt;T:p.Gly1546Val,ENSG00000196159:ENST00000394329:exon9:c.9743G&gt;T:p.Gly3248Val</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ENSG00000196159:ENST00000335110:exon9:c.4637G&gt;T:p.Gly1546Val,ENSG00000196159:ENST00000394329:exon9:c.9743G&gt;T:p.Gly3248Val</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr7</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>chr7</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R75" t="n">
+        <v>126340120</v>
+      </c>
       <c r="S75" t="n">
-        <v>126340120</v>
-      </c>
-      <c r="T75" t="n">
         <v>126892309</v>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>GRM8</t>
         </is>
@@ -7569,92 +7342,89 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>753</v>
-      </c>
-      <c r="C76" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C76" t="n">
+        <v>128047041</v>
       </c>
       <c r="D76" t="n">
         <v>128047041</v>
       </c>
-      <c r="E76" t="n">
-        <v>128047041</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000163161:ENST00000285398:exon6:c.694A&gt;T:p.Thr232Ser,ENSG00000163161:ENST00000493187:exon6:c.502A&gt;T:p.Thr168Ser</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>ENSG00000163161:ENST00000285398:exon6:c.694A&gt;T:p.Thr232Ser,ENSG00000163161:ENST00000493187:exon6:c.502A&gt;T:p.Thr168Ser</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr7</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>chr7</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R76" t="n">
+        <v>128032330</v>
+      </c>
       <c r="S76" t="n">
-        <v>128032330</v>
-      </c>
-      <c r="T76" t="n">
         <v>128046049</v>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>IMPDH1</t>
         </is>
@@ -7664,33 +7434,35 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>611</v>
-      </c>
-      <c r="C77" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>chrX</t>
         </is>
+      </c>
+      <c r="C77" t="n">
+        <v>132826395</v>
       </c>
       <c r="D77" t="n">
         <v>132826395</v>
       </c>
-      <c r="E77" t="n">
-        <v>132826395</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>splicing</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>splicing</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7705,12 +7477,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>.</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -7720,36 +7492,31 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG/Oncogenic</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>TSG/Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr9</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>chr9</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R77" t="n">
+        <v>132816184</v>
+      </c>
       <c r="S77" t="n">
-        <v>132816184</v>
-      </c>
-      <c r="T77" t="n">
         <v>132902443</v>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>GPR107</t>
         </is>
@@ -7759,58 +7526,60 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>697</v>
-      </c>
-      <c r="C78" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>chr9</t>
         </is>
+      </c>
+      <c r="C78" t="n">
+        <v>136653592</v>
       </c>
       <c r="D78" t="n">
         <v>136653592</v>
       </c>
-      <c r="E78" t="n">
-        <v>136653592</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000160293:ENST00000371851:exon14:c.1276G&gt;C:p.Asp426His,ENSG00000160293:ENST00000406606:exon14:c.1276G&gt;C:p.Asp426His,ENSG00000160293:ENST00000371850:exon15:c.1291G&gt;C:p.Asp431His</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>ENSG00000160293:ENST00000371851:exon14:c.1276G&gt;C:p.Asp426His,ENSG00000160293:ENST00000406606:exon14:c.1276G&gt;C:p.Asp426His,ENSG00000160293:ENST00000371850:exon15:c.1291G&gt;C:p.Asp431His</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7820,31 +7589,26 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr3</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>chr3</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R78" t="n">
+        <v>136649343</v>
+      </c>
       <c r="S78" t="n">
-        <v>136649343</v>
-      </c>
-      <c r="T78" t="n">
         <v>136670448</v>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>NCK1</t>
         </is>
@@ -7854,58 +7618,60 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>737</v>
-      </c>
-      <c r="C79" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C79" t="n">
+        <v>142139895</v>
       </c>
       <c r="D79" t="n">
         <v>142139895</v>
       </c>
-      <c r="E79" t="n">
-        <v>142139895</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000114127:ENST00000544157:exon7:c.506A&gt;C:p.Glu169Ala,ENSG00000114127:ENST00000264951:exon10:c.1136A&gt;C:p.Glu379Ala,ENSG00000114127:ENST00000392981:exon10:c.1136A&gt;C:p.Glu379Ala,ENSG00000114127:ENST00000463916:exon10:c.1136A&gt;C:p.Glu379Ala</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>ENSG00000114127:ENST00000544157:exon7:c.506A&gt;C:p.Glu169Ala,ENSG00000114127:ENST00000264951:exon10:c.1136A&gt;C:p.Glu379Ala,ENSG00000114127:ENST00000392981:exon10:c.1136A&gt;C:p.Glu379Ala,ENSG00000114127:ENST00000463916:exon10:c.1136A&gt;C:p.Glu379Ala</t>
+          <t>rs772860890</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>rs772860890</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7915,31 +7681,26 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>chr8</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R79" t="n">
+        <v>142138687</v>
+      </c>
       <c r="S79" t="n">
-        <v>142138687</v>
-      </c>
-      <c r="T79" t="n">
         <v>142153107</v>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>DENND3</t>
         </is>
@@ -7949,58 +7710,60 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>758</v>
-      </c>
-      <c r="C80" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>chr8</t>
         </is>
+      </c>
+      <c r="C80" t="n">
+        <v>144996316</v>
       </c>
       <c r="D80" t="n">
         <v>144996316</v>
       </c>
-      <c r="E80" t="n">
-        <v>144996316</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000178209:ENST00000322810:exon32:c.8084G&gt;A:p.Arg2695Gln,ENSG00000178209:ENST00000345136:exon32:c.7673G&gt;A:p.Arg2558Gln,ENSG00000178209:ENST00000354589:exon32:c.7673G&gt;A:p.Arg2558Gln,ENSG00000178209:ENST00000354958:exon32:c.7607G&gt;A:p.Arg2536Gln,ENSG00000178209:ENST00000356346:exon32:c.7631G&gt;A:p.Arg2544Gln,ENSG00000178209:ENST00000357649:exon32:c.7685G&gt;A:p.Arg2562Gln,ENSG00000178209:ENST00000398774:exon32:c.7577G&gt;A:p.Arg2526Gln,ENSG00000178209:ENST00000527096:exon32:c.7742G&gt;A:p.Arg2581Gln,ENSG00000178209:ENST00000436759:exon33:c.7754G&gt;A:p.Arg2585Gln</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>ENSG00000178209:ENST00000322810:exon32:c.8084G&gt;A:p.Arg2695Gln,ENSG00000178209:ENST00000345136:exon32:c.7673G&gt;A:p.Arg2558Gln,ENSG00000178209:ENST00000354589:exon32:c.7673G&gt;A:p.Arg2558Gln,ENSG00000178209:ENST00000354958:exon32:c.7607G&gt;A:p.Arg2536Gln,ENSG00000178209:ENST00000356346:exon32:c.7631G&gt;A:p.Arg2544Gln,ENSG00000178209:ENST00000357649:exon32:c.7685G&gt;A:p.Arg2562Gln,ENSG00000178209:ENST00000398774:exon32:c.7577G&gt;A:p.Arg2526Gln,ENSG00000178209:ENST00000527096:exon32:c.7742G&gt;A:p.Arg2581Gln,ENSG00000178209:ENST00000436759:exon33:c.7754G&gt;A:p.Arg2585Gln</t>
+          <t>rs782713454</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>rs782713454</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -8010,31 +7773,26 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>chr8</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R80" t="n">
+        <v>144989320</v>
+      </c>
       <c r="S80" t="n">
-        <v>144989320</v>
-      </c>
-      <c r="T80" t="n">
         <v>145018938</v>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>PLEC</t>
         </is>
@@ -8044,92 +7802,89 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>748</v>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>chr5</t>
         </is>
+      </c>
+      <c r="C81" t="n">
+        <v>149509379</v>
       </c>
       <c r="D81" t="n">
         <v>149509379</v>
       </c>
-      <c r="E81" t="n">
-        <v>149509379</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000113721:ENST00000261799:exon10:c.1520G&gt;A:p.Arg507His</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>ENSG00000113721:ENST00000261799:exon10:c.1520G&gt;A:p.Arg507His</t>
+          <t>rs145823245</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>rs145823245</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>LIKELY_BENIGN</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>LIKELY_BENIGN</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Oncogenic</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>chr5</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R81" t="n">
+        <v>149493401</v>
+      </c>
       <c r="S81" t="n">
-        <v>149493401</v>
-      </c>
-      <c r="T81" t="n">
         <v>149535408</v>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>PDGFRB</t>
         </is>
@@ -8139,58 +7894,60 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>723</v>
-      </c>
-      <c r="C82" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C82" t="n">
+        <v>152527721</v>
       </c>
       <c r="D82" t="n">
         <v>152527721</v>
       </c>
-      <c r="E82" t="n">
-        <v>152527721</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000183091:ENST00000603639:exon36:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000604864:exon36:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000172853:exon38:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000397345:exon38:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000409198:exon38:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000427231:exon38:c.4322A&gt;G:p.Asn1441Ser</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>ENSG00000183091:ENST00000603639:exon36:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000604864:exon36:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000172853:exon38:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000397345:exon38:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000409198:exon38:c.4322A&gt;G:p.Asn1441Ser,ENSG00000183091:ENST00000427231:exon38:c.4322A&gt;G:p.Asn1441Ser</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8200,31 +7957,26 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R82" t="n">
+        <v>152486957</v>
+      </c>
       <c r="S82" t="n">
-        <v>152486957</v>
-      </c>
-      <c r="T82" t="n">
         <v>152488484</v>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>CRCT1</t>
         </is>
@@ -8234,33 +7986,35 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>690</v>
-      </c>
-      <c r="C83" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>chr7</t>
         </is>
+      </c>
+      <c r="C83" t="n">
+        <v>155592941</v>
       </c>
       <c r="D83" t="n">
         <v>155592941</v>
       </c>
-      <c r="E83" t="n">
-        <v>155592941</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>splicing</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>splicing</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8275,12 +8029,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>.</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -8295,31 +8049,26 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr7</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>chr7</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R83" t="n">
+        <v>155592673</v>
+      </c>
       <c r="S83" t="n">
-        <v>155592673</v>
-      </c>
-      <c r="T83" t="n">
         <v>155605157</v>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>SHH</t>
         </is>
@@ -8329,92 +8078,89 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>763</v>
-      </c>
-      <c r="C84" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>chr5</t>
         </is>
+      </c>
+      <c r="C84" t="n">
+        <v>176637090</v>
       </c>
       <c r="D84" t="n">
         <v>176637090</v>
       </c>
-      <c r="E84" t="n">
-        <v>176637090</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000165671:ENST00000361032:exon2:c.1381G&gt;A:p.Ala461Thr,ENSG00000165671:ENST00000439151:exon5:c.1690G&gt;A:p.Ala564Thr,ENSG00000165671:ENST00000347982:exon6:c.883G&gt;A:p.Ala295Thr,ENSG00000165671:ENST00000354179:exon6:c.883G&gt;A:p.Ala295Thr</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>ENSG00000165671:ENST00000361032:exon2:c.1381G&gt;A:p.Ala461Thr,ENSG00000165671:ENST00000439151:exon5:c.1690G&gt;A:p.Ala564Thr,ENSG00000165671:ENST00000347982:exon6:c.883G&gt;A:p.Ala295Thr,ENSG00000165671:ENST00000354179:exon6:c.883G&gt;A:p.Ala295Thr</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>TSG/Oncogenic</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>TSG/Oncogenic</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr5</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>chr5</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R84" t="n">
+        <v>176561229</v>
+      </c>
       <c r="S84" t="n">
-        <v>176561229</v>
-      </c>
-      <c r="T84" t="n">
         <v>176727214</v>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>NSD1</t>
         </is>
@@ -8424,58 +8170,60 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>712</v>
-      </c>
-      <c r="C85" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>chr4</t>
         </is>
+      </c>
+      <c r="C85" t="n">
+        <v>187516969</v>
       </c>
       <c r="D85" t="n">
         <v>187516969</v>
       </c>
-      <c r="E85" t="n">
-        <v>187516969</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000083857:ENST00000441802:exon26:c.13012G&gt;T:p.Asp4338Tyr</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>ENSG00000083857:ENST00000441802:exon26:c.13012G&gt;T:p.Asp4338Tyr</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8485,31 +8233,26 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>chr4</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R85" t="n">
+        <v>187508947</v>
+      </c>
       <c r="S85" t="n">
-        <v>187508947</v>
-      </c>
-      <c r="T85" t="n">
         <v>187645010</v>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>FAT1</t>
         </is>
@@ -8519,58 +8262,60 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>736</v>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>chr4</t>
         </is>
+      </c>
+      <c r="C86" t="n">
+        <v>187524933</v>
       </c>
       <c r="D86" t="n">
         <v>187524933</v>
       </c>
-      <c r="E86" t="n">
-        <v>187524933</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000083857:ENST00000441802:exon19:c.10747G&gt;A:p.Asp3583Asn</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>ENSG00000083857:ENST00000441802:exon19:c.10747G&gt;A:p.Asp3583Asn</t>
+          <t>rs749223648</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>rs749223648</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -8580,31 +8325,26 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>chr4</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R86" t="n">
+        <v>187508947</v>
+      </c>
       <c r="S86" t="n">
-        <v>187508947</v>
-      </c>
-      <c r="T86" t="n">
         <v>187645010</v>
       </c>
-      <c r="U86" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>FAT1</t>
         </is>
@@ -8614,58 +8354,60 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>761</v>
-      </c>
-      <c r="C87" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C87" t="n">
+        <v>209106843</v>
       </c>
       <c r="D87" t="n">
         <v>209106843</v>
       </c>
-      <c r="E87" t="n">
-        <v>209106843</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000138413:ENST00000345146:exon7:c.725A&gt;T:p.Gln242Leu,ENSG00000138413:ENST00000415913:exon7:c.725A&gt;T:p.Gln242Leu,ENSG00000138413:ENST00000446179:exon7:c.725A&gt;T:p.Gln242Leu</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>ENSG00000138413:ENST00000345146:exon7:c.725A&gt;T:p.Gln242Leu,ENSG00000138413:ENST00000415913:exon7:c.725A&gt;T:p.Gln242Leu,ENSG00000138413:ENST00000446179:exon7:c.725A&gt;T:p.Gln242Leu</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">clinvar: UNK </t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: UNK </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8675,31 +8417,26 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr2</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>chr2</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="R87" t="n">
+        <v>209100952</v>
+      </c>
       <c r="S87" t="n">
-        <v>209100952</v>
-      </c>
-      <c r="T87" t="n">
         <v>209119795</v>
       </c>
-      <c r="U87" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>IDH1</t>
         </is>
@@ -8709,58 +8446,60 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>610</v>
-      </c>
-      <c r="C88" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C88" t="n">
+        <v>228159760</v>
       </c>
       <c r="D88" t="n">
         <v>228159760</v>
       </c>
-      <c r="E88" t="n">
-        <v>228159760</v>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>exonic</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>exonic</t>
+          <t>Nonsynonymous SNV</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Nonsynonymous SNV</t>
+          <t>ENSG00000169031:ENST00000396578:exon40:c.3499G&gt;A:p.Gly1167Arg</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>ENSG00000169031:ENST00000396578:exon40:c.3499G&gt;A:p.Gly1167Arg</t>
+          <t>rs267606745</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>rs267606745</t>
+          <t xml:space="preserve">clinvar: Pathogenic </t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t xml:space="preserve">clinvar: Pathogenic </t>
+          <t>UNCERTAIN_SIGNIFICANCE</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>UNCERTAIN_SIGNIFICANCE</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8770,31 +8509,26 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>chr1</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
           <t>+</t>
         </is>
       </c>
+      <c r="R88" t="n">
+        <v>228154711</v>
+      </c>
       <c r="S88" t="n">
-        <v>228154711</v>
-      </c>
-      <c r="T88" t="n">
         <v>228155621</v>
       </c>
-      <c r="U88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>LOC107985355</t>
         </is>
